--- a/Testing/13testing/template informe de defectos (1).xlsx
+++ b/Testing/13testing/template informe de defectos (1).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -64,7 +64,13 @@
     <t>-Ingresar a la web, clikear el boton de crear cuenta,completar los campos, obtener una cuenta.</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>20/10/2021 a 24/10/2021</t>
+  </si>
+  <si>
+    <t>3(Alta)</t>
+  </si>
+  <si>
+    <t>2(Media)</t>
   </si>
   <si>
     <t xml:space="preserve">Daniela </t>
@@ -88,6 +94,9 @@
     <t>-Ingresar a la web (no importa el dispositivo) y que esta cargue satisfactoriamente.</t>
   </si>
   <si>
+    <t>25/10/2021 a  27/10/2021</t>
+  </si>
+  <si>
     <t>Daniela</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t>-Ingresar a la web, navegar en ella, clikear el logotipo y ser redireccionado al home.</t>
   </si>
   <si>
+    <t>25/10/2021 a 27/10/2021</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
     <t>-Ingresar a la web, clickear sobre iniciar sesión, iniciarla satisfactoriamente.</t>
   </si>
   <si>
+    <t>27/10/2021 a 29/10/2021</t>
+  </si>
+  <si>
     <t>Gabriel</t>
   </si>
   <si>
@@ -161,13 +176,19 @@
   </si>
   <si>
     <t>-Ingresar a la web, ingresar a "iniciar sesión", colocar mal contraseña/email y ser advertido.</t>
+  </si>
+  <si>
+    <t>1(Baja)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -188,6 +209,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -306,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -344,19 +369,28 @@
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,17 +723,17 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.0</v>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -756,37 +790,37 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3.0</v>
+        <v>27</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -843,37 +877,37 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>2.0</v>
+        <v>35</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -930,37 +964,37 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3.0</v>
+        <v>42</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1017,72 +1051,72 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>42</v>
+      <c r="E23" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>3.0</v>
+        <v>48</v>
+      </c>
+      <c r="G23" s="19">
+        <v>44496.0</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="A24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>19</v>
+      <c r="E24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="22">
+        <v>44495.0</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
